--- a/outputs-r202/f__Erysipelatoclostridiaceae.xlsx
+++ b/outputs-r202/f__Erysipelatoclostridiaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -577,6 +582,11 @@
           <t>g__Sharpea</t>
         </is>
       </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>g__Sharpea</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -634,6 +644,11 @@
           <t>g__Sharpea</t>
         </is>
       </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>g__Sharpea</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -691,6 +706,11 @@
           <t>g__Sharpea</t>
         </is>
       </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>g__Sharpea</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -748,6 +768,11 @@
           <t>g__Catenibacterium</t>
         </is>
       </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>g__Catenibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -805,6 +830,11 @@
           <t>g__Catenibacterium</t>
         </is>
       </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>g__Catenibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -862,6 +892,11 @@
           <t>g__Catenibacterium</t>
         </is>
       </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>g__Catenibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -919,6 +954,11 @@
           <t>g__Intestinibaculum</t>
         </is>
       </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>g__Intestinibaculum</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -976,6 +1016,11 @@
           <t>g__Sharpea</t>
         </is>
       </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>g__Sharpea</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1033,6 +1078,11 @@
           <t>g__Sharpea</t>
         </is>
       </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>g__Sharpea</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1090,6 +1140,11 @@
           <t>g__Sharpea</t>
         </is>
       </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>g__Sharpea</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1147,6 +1202,11 @@
           <t>g__Kandleria</t>
         </is>
       </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>g__Kandleria</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1204,6 +1264,11 @@
           <t>g__Intestinibaculum</t>
         </is>
       </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>g__Intestinibaculum</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1261,6 +1326,11 @@
           <t>g__Kandleria</t>
         </is>
       </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>g__Kandleria(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1314,6 +1384,11 @@
         <v>0.851610701236282</v>
       </c>
       <c r="Q15" t="inlineStr">
+        <is>
+          <t>g__Catenibacterium</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
         <is>
           <t>g__Catenibacterium</t>
         </is>

--- a/outputs-r202/f__Erysipelatoclostridiaceae.xlsx
+++ b/outputs-r202/f__Erysipelatoclostridiaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,682 +715,372 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG128.fasta</t>
+          <t>RUG261.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.157091892735433e-05</v>
+        <v>0.008413054204986956</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001414770804941893</v>
+        <v>0.001342146577553643</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6931693565997272</v>
+        <v>0.009393044919410445</v>
       </c>
       <c r="E5" t="n">
-        <v>4.875633476247858e-14</v>
+        <v>2.222451729453499e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>4.875633476247858e-14</v>
+        <v>2.222451729453499e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>4.875633476247862e-14</v>
+        <v>2.222451729453499e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>4.875633476247862e-14</v>
+        <v>2.222451729453499e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>4.875633476247862e-14</v>
+        <v>2.222451729453499e-14</v>
       </c>
       <c r="J5" t="n">
-        <v>4.875633476247862e-14</v>
+        <v>2.222451729453499e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3054023992145777</v>
+        <v>0.02221417362946235</v>
       </c>
       <c r="L5" t="n">
-        <v>4.875633476247858e-14</v>
+        <v>2.222451729453499e-14</v>
       </c>
       <c r="M5" t="n">
-        <v>4.875633476247858e-14</v>
+        <v>0.9231992620394117</v>
       </c>
       <c r="N5" t="n">
-        <v>1.902461387192268e-06</v>
+        <v>0.03543831862899702</v>
       </c>
       <c r="O5" t="n">
-        <v>4.875633476247858e-14</v>
+        <v>2.222451729453499e-14</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6931693565997272</v>
+        <v>0.9231992620394117</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>g__Catenibacterium</t>
+          <t>g__Sharpea</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>g__Catenibacterium</t>
+          <t>g__Sharpea</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG214.fasta</t>
+          <t>RUG262.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0007339784081931969</v>
+        <v>0.01083251401259105</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000140769932016836</v>
+        <v>0.001279330542448009</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8623835675905666</v>
+        <v>0.01127061605298136</v>
       </c>
       <c r="E6" t="n">
-        <v>2.239917752547184e-14</v>
+        <v>2.222801275660496e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>2.239917752547184e-14</v>
+        <v>2.222801275660496e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>2.239917752547184e-14</v>
+        <v>2.222801275660496e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>2.239917752547184e-14</v>
+        <v>2.222801275660496e-14</v>
       </c>
       <c r="I6" t="n">
-        <v>2.239917752547184e-14</v>
+        <v>2.222801275660496e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>2.239917752547184e-14</v>
+        <v>2.222801275660496e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1367416834149127</v>
+        <v>0.02459432463909591</v>
       </c>
       <c r="L6" t="n">
-        <v>2.239917752547183e-14</v>
+        <v>2.222801275660496e-14</v>
       </c>
       <c r="M6" t="n">
-        <v>2.239917752547183e-14</v>
+        <v>0.9192769091764028</v>
       </c>
       <c r="N6" t="n">
-        <v>6.541088205155922e-10</v>
+        <v>0.03274630557630299</v>
       </c>
       <c r="O6" t="n">
-        <v>2.239917752547183e-14</v>
+        <v>2.222801275660496e-14</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8623835675905666</v>
+        <v>0.9192769091764028</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>g__Catenibacterium</t>
+          <t>g__Sharpea</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>g__Catenibacterium</t>
+          <t>g__Sharpea</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG222.fasta</t>
+          <t>RUG286.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.805807714095541e-06</v>
+        <v>0.01742666123801048</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0004922344576681483</v>
+        <v>0.001304727637083289</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6997453097300951</v>
+        <v>0.01236328840818803</v>
       </c>
       <c r="E7" t="n">
-        <v>3.464765041873518e-14</v>
+        <v>2.223840588356148e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>3.464765041873518e-14</v>
+        <v>2.223840588356148e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>3.464765041873517e-14</v>
+        <v>2.223840588356148e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>3.464765041873515e-14</v>
+        <v>2.223840588356148e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>3.464765041873515e-14</v>
+        <v>2.223840588356148e-14</v>
       </c>
       <c r="J7" t="n">
-        <v>3.464765041873517e-14</v>
+        <v>2.223840588356148e-14</v>
       </c>
       <c r="K7" t="n">
-        <v>0.299749668201298</v>
+        <v>0.02703618152921387</v>
       </c>
       <c r="L7" t="n">
-        <v>3.464765041873522e-14</v>
+        <v>2.223840588356148e-14</v>
       </c>
       <c r="M7" t="n">
-        <v>3.464765041873522e-14</v>
+        <v>0.9029555770101041</v>
       </c>
       <c r="N7" t="n">
-        <v>3.981802912888756e-06</v>
+        <v>0.0389135641772223</v>
       </c>
       <c r="O7" t="n">
-        <v>3.464765041873522e-14</v>
+        <v>2.223840588356148e-14</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6997453097300951</v>
+        <v>0.9029555770101041</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>g__Catenibacterium</t>
+          <t>g__Sharpea</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>g__Catenibacterium</t>
+          <t>g__Sharpea</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG246.fasta</t>
+          <t>RUG287.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004593421412681152</v>
+        <v>0.005995858289846721</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000903708479577107</v>
+        <v>0.0002588181684232365</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02114127839916488</v>
+        <v>0.02370487852255188</v>
       </c>
       <c r="E8" t="n">
-        <v>2.221073868904399e-14</v>
+        <v>2.221774990398687e-14</v>
       </c>
       <c r="F8" t="n">
-        <v>2.221073868904399e-14</v>
+        <v>2.221774990398687e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>2.221073868904399e-14</v>
+        <v>2.221774990398687e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>2.221073868904399e-14</v>
+        <v>2.221774990398687e-14</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9428827288017904</v>
+        <v>2.221774990398687e-14</v>
       </c>
       <c r="J8" t="n">
-        <v>2.221073868904399e-14</v>
+        <v>0.9268959109375553</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03461030083433802</v>
+        <v>0.04015890643499267</v>
       </c>
       <c r="L8" t="n">
-        <v>2.221073868904399e-14</v>
+        <v>2.221774990398687e-14</v>
       </c>
       <c r="M8" t="n">
-        <v>2.221073868904399e-14</v>
+        <v>2.221774990398687e-14</v>
       </c>
       <c r="N8" t="n">
-        <v>2.641343683775697e-06</v>
+        <v>0.002985627646452366</v>
       </c>
       <c r="O8" t="n">
-        <v>2.221073868904399e-14</v>
+        <v>2.221774990398687e-14</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9428827288017904</v>
+        <v>0.9268959109375553</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>g__Intestinibaculum</t>
+          <t>g__Kandleria</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>g__Intestinibaculum</t>
+          <t>g__Kandleria</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RUG261.fasta</t>
+          <t>RUG319.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.008413054204986956</v>
+        <v>0.003659858934040232</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001342146577553643</v>
+        <v>0.0009013110551089557</v>
       </c>
       <c r="D9" t="n">
-        <v>0.009393044919410445</v>
+        <v>0.00752056176180464</v>
       </c>
       <c r="E9" t="n">
-        <v>2.222451729453499e-14</v>
+        <v>2.220327277427278e-14</v>
       </c>
       <c r="F9" t="n">
-        <v>2.222451729453499e-14</v>
+        <v>2.220327277427278e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>2.222451729453499e-14</v>
+        <v>2.220327277427278e-14</v>
       </c>
       <c r="H9" t="n">
-        <v>2.222451729453499e-14</v>
+        <v>2.220327277427278e-14</v>
       </c>
       <c r="I9" t="n">
-        <v>2.222451729453499e-14</v>
+        <v>0.9472084146117221</v>
       </c>
       <c r="J9" t="n">
-        <v>2.222451729453499e-14</v>
+        <v>2.220327277427278e-14</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02221417362946235</v>
+        <v>0.04070819325419128</v>
       </c>
       <c r="L9" t="n">
-        <v>2.222451729453499e-14</v>
+        <v>2.220327277427278e-14</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9231992620394117</v>
+        <v>2.220327277427278e-14</v>
       </c>
       <c r="N9" t="n">
-        <v>0.03543831862899702</v>
+        <v>1.660382955081105e-06</v>
       </c>
       <c r="O9" t="n">
-        <v>2.222451729453499e-14</v>
+        <v>2.220327277427278e-14</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9231992620394117</v>
+        <v>0.9472084146117221</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>g__Sharpea</t>
+          <t>g__Intestinibaculum</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>g__Sharpea</t>
+          <t>g__Intestinibaculum</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>RUG262.fasta</t>
+          <t>RUG655.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01083251401259105</v>
+        <v>0.004467267028972073</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001279330542448009</v>
+        <v>0.2930646451564645</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01127061605298136</v>
+        <v>0.1337864461502059</v>
       </c>
       <c r="E10" t="n">
-        <v>2.222801275660496e-14</v>
+        <v>2.303898732888713e-14</v>
       </c>
       <c r="F10" t="n">
-        <v>2.222801275660496e-14</v>
+        <v>2.303898732888713e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>2.222801275660496e-14</v>
+        <v>2.303898732888713e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>2.222801275660496e-14</v>
+        <v>2.303898732888713e-14</v>
       </c>
       <c r="I10" t="n">
-        <v>2.222801275660496e-14</v>
+        <v>2.303898732888713e-14</v>
       </c>
       <c r="J10" t="n">
-        <v>2.222801275660496e-14</v>
+        <v>0.01614339506969534</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02459432463909591</v>
+        <v>0.04544751310484692</v>
       </c>
       <c r="L10" t="n">
-        <v>2.222801275660496e-14</v>
+        <v>2.303898732888713e-14</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9192769091764028</v>
+        <v>2.303898732888713e-14</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03274630557630299</v>
+        <v>0.5070907334896311</v>
       </c>
       <c r="O10" t="n">
-        <v>2.222801275660496e-14</v>
+        <v>2.303898732888713e-14</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9192769091764028</v>
+        <v>0.5070907334896311</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>g__Sharpea</t>
+          <t>g__Stoquefichus</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>g__Sharpea</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>RUG286.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.01742666123801048</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.001304727637083289</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.01236328840818803</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.223840588356148e-14</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.223840588356148e-14</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.223840588356148e-14</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.223840588356148e-14</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.223840588356148e-14</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.223840588356148e-14</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.02703618152921387</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.223840588356148e-14</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.9029555770101041</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.0389135641772223</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2.223840588356148e-14</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.9029555770101041</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>g__Sharpea</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>g__Sharpea</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>RUG287.fasta</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.005995858289846721</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0002588181684232365</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.02370487852255188</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.221774990398687e-14</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.221774990398687e-14</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.221774990398687e-14</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.221774990398687e-14</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.221774990398687e-14</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.9268959109375553</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.04015890643499267</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.221774990398687e-14</v>
-      </c>
-      <c r="M12" t="n">
-        <v>2.221774990398687e-14</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.002985627646452366</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2.221774990398687e-14</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.9268959109375553</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>g__Kandleria</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>g__Kandleria</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>RUG319.fasta</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.003659858934040232</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0009013110551089557</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.00752056176180464</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.220327277427278e-14</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2.220327277427278e-14</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.220327277427278e-14</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.220327277427278e-14</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.9472084146117221</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.220327277427278e-14</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.04070819325419128</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.220327277427278e-14</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2.220327277427278e-14</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.660382955081105e-06</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2.220327277427278e-14</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.9472084146117221</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>g__Intestinibaculum</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>g__Intestinibaculum</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>RUG655.fasta</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.004467267028972073</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2930646451564645</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.1337864461502059</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2.303898732888713e-14</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.303898732888713e-14</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.303898732888713e-14</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.303898732888713e-14</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.303898732888713e-14</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.01614339506969534</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.04544751310484692</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.303898732888713e-14</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2.303898732888713e-14</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.5070907334896311</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2.303898732888713e-14</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.5070907334896311</v>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
           <t>g__Stoquefichus</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>g__Stoquefichus</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>hRUG852.fasta</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.0002464587886477586</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.003662781849871917</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.8496732582337564</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4.141060466444902e-14</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4.141060466444902e-14</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4.1410604664449e-14</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.1410604664449e-14</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.1410604664449e-14</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.1410604664449e-14</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.1464175001470436</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.141060466444856e-14</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4.141060466444856e-14</v>
-      </c>
-      <c r="N15" t="n">
-        <v>9.803074487013359e-10</v>
-      </c>
-      <c r="O15" t="n">
-        <v>4.141060466444856e-14</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.8496732582337564</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>g__Catenibacterium</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>g__Catenibacterium</t>
         </is>
       </c>
     </row>
